--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-05_beg.xlsx
@@ -492,7 +492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   I just took care of some guys who called themselves "Reunion."
+    <t xml:space="preserve">[name="Texas"]   I just took care of some guys who called themselves 'Reunion.'
 </t>
   </si>
   <si>
